--- a/rules/2.工作经历规则集.xlsx
+++ b/rules/2.工作经历规则集.xlsx
@@ -56,7 +56,7 @@
     <t>排序</t>
   </si>
   <si>
-    <t>工作经历的时间按最远起始时间降序（越早越前）</t>
+    <t>工作经历按时间排序，越早越前</t>
   </si>
   <si>
     <t>中</t>
@@ -92,7 +92,7 @@
     <t>内容</t>
   </si>
   <si>
-    <t>甲乙方名称、时间要与工作经历的最后一段一致</t>
+    <t>劳动合同中甲乙方名称、时间要与工作经历的最后一段一致</t>
   </si>
   <si>
     <t>高</t>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1321,7 +1321,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" sqref="E2:E8 E9:E18">
+    <dataValidation type="list" sqref="E2:E18">
       <formula1>"中,极高,高,低"</formula1>
     </dataValidation>
   </dataValidations>
